--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1571015.550409035</v>
+        <v>-1573591.239378586</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12610011.71276486</v>
+        <v>12574568.46673313</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14742507.84358746</v>
+        <v>14756814.21519036</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>208.7870980274444</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>126.7498226612772</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>85.60757961726044</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>209.4622989630803</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>97.98497099623586</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>251.2852794514157</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>31.80684691296299</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>191.8128845006356</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>200.433170752809</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>10.28723133281382</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>83.11428111792293</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>74.75769145492336</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986191</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>126.926382450742</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>253.6303937659989</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444116</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>102.1557845699801</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>63.34420421319481</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520965</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187854</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6452826062311442</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>146.7151441592114</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261716</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652588</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808203</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972045</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1032.061124352531</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C2" t="n">
-        <v>821.1650657389509</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D2" t="n">
-        <v>821.1650657389509</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="E2" t="n">
-        <v>821.1650657389509</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.800296392465</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1418.660964416653</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
         <v>66.51211643218342</v>
@@ -4492,46 +4492,46 @@
         <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>471.3317757503526</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>638.7642570495505</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>810.0730940793979</v>
+        <v>1306.260082905509</v>
       </c>
       <c r="O4" t="n">
-        <v>947.9914432975877</v>
+        <v>1605.589681825923</v>
       </c>
       <c r="P4" t="n">
-        <v>1055.037596261252</v>
+        <v>1704.540684578681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1132.647892413767</v>
+        <v>1717.461451937222</v>
       </c>
       <c r="R4" t="n">
-        <v>1132.647892413767</v>
+        <v>1627.63099469475</v>
       </c>
       <c r="S4" t="n">
-        <v>1132.647892413767</v>
+        <v>1435.945110521576</v>
       </c>
       <c r="T4" t="n">
-        <v>1132.647892413767</v>
+        <v>1214.178495091102</v>
       </c>
       <c r="U4" t="n">
-        <v>921.0698126530797</v>
+        <v>925.0756282167457</v>
       </c>
       <c r="V4" t="n">
-        <v>921.0698126530797</v>
+        <v>670.3911400108589</v>
       </c>
       <c r="W4" t="n">
-        <v>921.0698126530797</v>
+        <v>380.9739699738982</v>
       </c>
       <c r="X4" t="n">
-        <v>693.0802617550623</v>
+        <v>152.9844190758809</v>
       </c>
       <c r="Y4" t="n">
-        <v>693.0802617550623</v>
+        <v>152.9844190758809</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1844.338003964587</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C5" t="n">
-        <v>1475.375487024175</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D5" t="n">
-        <v>1117.109788417425</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>731.3215358191806</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>320.335631029573</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>2994.5429342656</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2621.07717600452</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y5" t="n">
-        <v>2230.937844028709</v>
+        <v>1681.836054204826</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,34 +4662,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>662.9318377313859</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C7" t="n">
-        <v>493.9956548034791</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D7" t="n">
-        <v>343.8790153911433</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E7" t="n">
-        <v>195.9659218087502</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>195.9659218087502</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>195.9659218087502</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1837.464090846021</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1582.779602640134</v>
+        <v>941.1583359835356</v>
       </c>
       <c r="W7" t="n">
-        <v>1293.362432603173</v>
+        <v>941.1583359835356</v>
       </c>
       <c r="X7" t="n">
-        <v>1065.372881705156</v>
+        <v>713.1687850855183</v>
       </c>
       <c r="Y7" t="n">
-        <v>844.5803025616257</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>1178.820931986406</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,13 +4799,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>3012.857404901105</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2681.794517557534</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269321</v>
+        <v>2329.02586228742</v>
       </c>
       <c r="X8" t="n">
-        <v>2377.852659508903</v>
+        <v>1955.56010402634</v>
       </c>
       <c r="Y8" t="n">
-        <v>1987.713327533092</v>
+        <v>1565.420772050528</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>692.0385327017424</v>
+        <v>142.0249360836212</v>
       </c>
       <c r="C10" t="n">
-        <v>608.0847133907091</v>
+        <v>142.0249360836212</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>142.0249360836212</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959802</v>
+        <v>142.0249360836212</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.09371846696</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.676548429999</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X10" t="n">
-        <v>873.6869975319821</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y10" t="n">
-        <v>873.6869975319821</v>
+        <v>142.0249360836212</v>
       </c>
     </row>
     <row r="11">
@@ -5033,13 +5033,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5048,22 +5048,22 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.580456911431</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783218</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.021500885201</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.228921741671</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616859</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362664</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468469</v>
+        <v>372.4964262156759</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962605</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>632.7243904253733</v>
+        <v>513.85360074007</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121631</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2315.933335172869</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2096.33187019581</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1807.256643540008</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1552.572155334121</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1263.15498529716</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1035.165434399143</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>814.372855255613</v>
+        <v>695.5020655703097</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468469</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962605</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1754.779756989948</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5744,19 +5744,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5765,34 +5765,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,19 +5981,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6005,10 +6005,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6072,22 +6072,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6127,22 +6127,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6367,13 +6367,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6443,67 +6443,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>692.9625378792909</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1320.560501433898</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2529.355041543135</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656809</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384021</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380727</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>898.265941231132</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6838,28 +6838,28 @@
         <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6868,7 +6868,7 @@
         <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O34" t="n">
         <v>2179.340199382518</v>
@@ -6917,37 +6917,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,13 +7129,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,22 +7254,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,7 +7333,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,22 +7360,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921482</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319314</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656808</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150014</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942646</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580108</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7573,7 +7573,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7585,10 +7585,10 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7597,13 +7597,13 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
         <v>1483.79828551875</v>
@@ -7612,7 +7612,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7646,7 +7646,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7786,16 +7786,16 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8140,22 +8140,22 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>160.2146161612334</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>8.176919404955242</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>156.4857937435632</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>280.1262230804342</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22702,19 +22702,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>94.22440056467686</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -22750,22 +22750,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>76.74953924253261</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.762145984685048e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>19.50758019582713</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>32.89260457059211</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823226</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>117.6820817884498</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>251.4923607175969</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>139.4693302300328</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>63.36835372228749</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1047227.073097682</v>
+        <v>1076909.480249148</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1306559.554766517</v>
+        <v>1306559.554766518</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1284674.661742031</v>
+        <v>1284674.66174203</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1284674.661742031</v>
+        <v>1284674.66174203</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1284674.661742031</v>
+        <v>1284674.66174203</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1306559.554766517</v>
+        <v>1284674.66174203</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116044.8438455267</v>
+        <v>118476.4986260252</v>
       </c>
       <c r="C2" t="n">
         <v>143682.3097262496</v>
@@ -26320,37 +26320,37 @@
         <v>143682.3097262496</v>
       </c>
       <c r="E2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.6549457512</v>
       </c>
       <c r="F2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.6549457512</v>
       </c>
       <c r="G2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.6549457512</v>
       </c>
       <c r="H2" t="n">
         <v>141250.6549457511</v>
       </c>
       <c r="I2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.6549457512</v>
       </c>
       <c r="J2" t="n">
         <v>141250.6549457511</v>
       </c>
       <c r="K2" t="n">
-        <v>143682.3097262494</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="M2" t="n">
-        <v>143682.3097262494</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="N2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="O2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="P2" t="n">
         <v>143682.3097262496</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363178</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.0279355118</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3415.825872823416</v>
+        <v>11234.60594742185</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820642</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685518</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685515</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
+        <v>14216.75207685505</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14216.75207685505</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14216.75207685505</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14216.75207685503</v>
+      </c>
+      <c r="K4" t="n">
         <v>14216.75207685511</v>
       </c>
-      <c r="H4" t="n">
-        <v>14216.7520768551</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14216.75207685508</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22207.61133994852</v>
-      </c>
       <c r="L4" t="n">
-        <v>22207.61133994852</v>
+        <v>22207.61133994851</v>
       </c>
       <c r="M4" t="n">
-        <v>22207.61133994854</v>
+        <v>22207.61133994853</v>
       </c>
       <c r="N4" t="n">
         <v>22207.61133994852</v>
@@ -26457,7 +26457,7 @@
         <v>22207.61133994853</v>
       </c>
       <c r="P4" t="n">
-        <v>22207.61133994852</v>
+        <v>22207.61133994853</v>
       </c>
     </row>
     <row r="5">
@@ -26494,7 +26494,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1324049.668316283</v>
+        <v>-1329796.8766261</v>
       </c>
       <c r="C6" t="n">
-        <v>-57655.41768334998</v>
+        <v>-57655.4176833501</v>
       </c>
       <c r="D6" t="n">
         <v>-57655.41768335007</v>
       </c>
       <c r="E6" t="n">
-        <v>-299501.088762366</v>
+        <v>-299535.826687802</v>
       </c>
       <c r="F6" t="n">
-        <v>25911.37304498882</v>
+        <v>25876.63511955336</v>
       </c>
       <c r="G6" t="n">
-        <v>25911.37304498894</v>
+        <v>25876.63511955331</v>
       </c>
       <c r="H6" t="n">
-        <v>25911.3730449889</v>
+        <v>25876.63511955326</v>
       </c>
       <c r="I6" t="n">
-        <v>25911.37304498896</v>
+        <v>25876.63511955334</v>
       </c>
       <c r="J6" t="n">
-        <v>-191619.8293522885</v>
+        <v>-191654.5672777242</v>
       </c>
       <c r="K6" t="n">
-        <v>-1117.135461246304</v>
+        <v>25876.63511955322</v>
       </c>
       <c r="L6" t="n">
-        <v>18310.58253238579</v>
+        <v>-1117.135461246071</v>
       </c>
       <c r="M6" t="n">
-        <v>-66744.44540312639</v>
+        <v>-66744.4454031261</v>
       </c>
       <c r="N6" t="n">
         <v>18310.58253238568</v>
       </c>
       <c r="O6" t="n">
-        <v>18310.58253238571</v>
+        <v>18310.58253238573</v>
       </c>
       <c r="P6" t="n">
-        <v>-1117.135461246056</v>
+        <v>18310.5825323857</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.216833186417042e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.216833186417042e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26744,13 +26744,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.216833186417042e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.216833186417042e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>284.7488706672447</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>159.6364462020378</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>112.9481680013578</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>60.32475882319241</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27859,13 +27859,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>50.56200120609302</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>359.4438693456552</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>84.13253998070491</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>70.66335656800788</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,10 +28062,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.216833186417042e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28138,10 +28138,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.216833186417042e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.216833186417042e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>8.779686259686612e-12</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.216833186417042e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496644</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>266.3926848685833</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>339.977297228698</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817595</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>339.977297228698</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O21" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32792,7 +32792,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32953,7 +32953,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159425</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>169.6252075171357</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,25 +33494,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,28 +33731,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33974,25 +33974,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34208,19 +34208,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34366,10 +34366,10 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34860,22 +34860,22 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>333.2538454843117</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>108.1274272360246</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663311</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>128.5512458942243</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066797</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367789</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>197.8432633066797</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O21" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36440,7 +36440,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>23.94570355317173</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.331130754993</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986646</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37622,25 +37622,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>224.339029438562</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -37947,10 +37947,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38014,10 +38014,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
@@ -38181,10 +38181,10 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980851</v>
